--- a/Intervencion_forestal_guaduales_SHP.xlsx
+++ b/Intervencion_forestal_guaduales_SHP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epmco-my.sharepoint.com/personal/alejandro_a_lopez_edeq_com_co/Documents/Python/Solicitudes mtto/Actas_forestales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{76BFB184-73EF-419B-9BE7-1A7FDFE0C74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C80DAC9-7027-4CBD-8C7F-F8C182081C36}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{76BFB184-73EF-419B-9BE7-1A7FDFE0C74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96B950B3-340B-45DA-9D37-EA3A56087F94}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2646F52C-E56C-46BF-85A4-3ABCE119EDF4}"/>
   </bookViews>
@@ -1401,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBE294E-25D1-4085-BCA4-E114773525D3}">
   <dimension ref="A1:AM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM17" sqref="AM17"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1:AM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
